--- a/newWebInsurance/GetData.xlsx
+++ b/newWebInsurance/GetData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="2">
   <si>
     <t>Full Name</t>
   </si>
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -428,6 +428,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
